--- a/results/StatesThroughTime/StatesThroughTime-bin50.xlsx
+++ b/results/StatesThroughTime/StatesThroughTime-bin50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="8420" yWindow="8640" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="2" r:id="rId1"/>
     <sheet name="StatesThroughTime-bin50.txt" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,12 +56,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,14 +101,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -112,7 +147,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -194,37 +229,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.022342203</c:v>
+                  <c:v>0.0105704343114974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.061805617</c:v>
+                  <c:v>0.0878157653724967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.063514458</c:v>
+                  <c:v>0.0482195721561627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.074908529</c:v>
+                  <c:v>0.0577876433902047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.127681095</c:v>
+                  <c:v>0.0721086754813268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.133556169</c:v>
+                  <c:v>0.12090848190675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.156624969</c:v>
+                  <c:v>0.138794389004871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27563528</c:v>
+                  <c:v>0.211514209116214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.110622344</c:v>
+                  <c:v>0.251948708072373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.326392827</c:v>
+                  <c:v>0.103937981210856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0851334054743679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,37 +329,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.020358</c:v>
+                  <c:v>0.00744597715996914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.056009253</c:v>
+                  <c:v>0.0300378286795407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.069437392</c:v>
+                  <c:v>0.0389232545560901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.090525362</c:v>
+                  <c:v>0.0565280355146018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.109228632</c:v>
+                  <c:v>0.116418527023892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.126564761</c:v>
+                  <c:v>0.20970000487126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.171076853</c:v>
+                  <c:v>0.17372488822199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19699674</c:v>
+                  <c:v>0.208305349686847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16480838</c:v>
+                  <c:v>0.211815965901183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.216692436</c:v>
+                  <c:v>0.286766684991881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.444749349570865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,37 +429,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.031147677</c:v>
+                  <c:v>0.00921853467556748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.059795608</c:v>
+                  <c:v>0.0373153929047785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.074783792</c:v>
+                  <c:v>0.0413062763204341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.104337665</c:v>
+                  <c:v>0.0891382690231085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.110684743</c:v>
+                  <c:v>0.141211151983299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13832576</c:v>
+                  <c:v>0.225496621294363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19103144</c:v>
+                  <c:v>0.180224491997217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.168592187</c:v>
+                  <c:v>0.160061273834377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.210936058</c:v>
+                  <c:v>0.173072219206681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.205369342</c:v>
+                  <c:v>0.311259263048017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.432442485270239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,37 +529,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.360942657</c:v>
+                  <c:v>0.129039147551507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.436488611</c:v>
+                  <c:v>0.498660024670417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.462756421</c:v>
+                  <c:v>0.528175928080845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48056665</c:v>
+                  <c:v>0.539284381901951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.339408185</c:v>
+                  <c:v>0.360854781582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.208130523</c:v>
+                  <c:v>0.254443974599861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.171424988</c:v>
+                  <c:v>0.222349857428671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.010678599</c:v>
+                  <c:v>0.146600947112039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30325652</c:v>
+                  <c:v>0.208070449547669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.025341681</c:v>
+                  <c:v>0.227877309209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0143996933426119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,37 +629,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.028310691</c:v>
+                  <c:v>0.0284619435157952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.055243189</c:v>
+                  <c:v>0.102486230012371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.064756619</c:v>
+                  <c:v>0.162526664115055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.045879654</c:v>
+                  <c:v>0.121216361289084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.055588417</c:v>
+                  <c:v>0.0935598357225702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.063656297</c:v>
+                  <c:v>0.0508767368128044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.055307399</c:v>
+                  <c:v>0.0631286001217816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.048532695</c:v>
+                  <c:v>0.0993655574112736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.046620183</c:v>
+                  <c:v>0.0457909262352122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.035425148</c:v>
+                  <c:v>0.0461567135235444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00528764370215727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,37 +729,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.052907602</c:v>
+                  <c:v>0.023246383562196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.049415522</c:v>
+                  <c:v>0.0651688332946726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.057617043</c:v>
+                  <c:v>0.0828845879297651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032471687</c:v>
+                  <c:v>0.0456381185419816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04615896</c:v>
+                  <c:v>0.0508923526327998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.053206742</c:v>
+                  <c:v>0.0232993251913709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03860285</c:v>
+                  <c:v>0.0425659797320808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.037163625</c:v>
+                  <c:v>0.0498223970076548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.023119723</c:v>
+                  <c:v>0.0230520010438413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.020593244</c:v>
+                  <c:v>0.0103301577360241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00204100858269543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,37 +829,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.251286984</c:v>
+                  <c:v>0.0914084960178728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.085150828</c:v>
+                  <c:v>0.0766674500599242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03698674</c:v>
+                  <c:v>0.0394548094460077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.024332666</c:v>
+                  <c:v>0.0295375324310705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.025192018</c:v>
+                  <c:v>0.0466635414520993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.036760095</c:v>
+                  <c:v>0.0165582313848295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.013372808</c:v>
+                  <c:v>0.0466318419450243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025821893</c:v>
+                  <c:v>0.0216557324286708</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.003148258</c:v>
+                  <c:v>0.016800608907446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.009148215</c:v>
+                  <c:v>0.00177370795639063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00135603688239388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,37 +929,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.005270811</c:v>
+                  <c:v>0.00195511611534536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.018757633</c:v>
+                  <c:v>0.0176587931116137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.020892391</c:v>
+                  <c:v>0.0105594878319365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03199117</c:v>
+                  <c:v>0.0273533488109807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.042814439</c:v>
+                  <c:v>0.0759328873115287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.053316091</c:v>
+                  <c:v>0.0849159340292276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.031248544</c:v>
+                  <c:v>0.0891501297842728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.051896717</c:v>
+                  <c:v>0.0865525842032011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.011686765</c:v>
+                  <c:v>0.0573175800278358</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.025016551</c:v>
+                  <c:v>0.00989690489445605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0115737821851079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,37 +1029,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.200676212</c:v>
+                  <c:v>0.0768463641067954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.097359048</c:v>
+                  <c:v>0.0841751314273564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.039824151</c:v>
+                  <c:v>0.0479493957116779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.026486393</c:v>
+                  <c:v>0.0335162818131644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.022550299</c:v>
+                  <c:v>0.0422190495012758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.031647167</c:v>
+                  <c:v>0.0135919240779401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.008826265</c:v>
+                  <c:v>0.042907900487126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.020239047</c:v>
+                  <c:v>0.0153709523312457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.001739244</c:v>
+                  <c:v>0.0110877011134307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.006995605</c:v>
+                  <c:v>0.00130539665970772</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00092888424959406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,11 +1075,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="408440808"/>
-        <c:axId val="408443752"/>
+        <c:axId val="2127592216"/>
+        <c:axId val="2128210888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408440808"/>
+        <c:axId val="2127592216"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1063,10 +1098,10 @@
                 <a:latin typeface="Verdana"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408443752"/>
+        <c:crossAx val="2128210888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1074,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408443752"/>
+        <c:axId val="2128210888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408440808"/>
+        <c:crossAx val="2127592216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,7 +1143,7 @@
               <a:latin typeface="Verdana"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1483,7 +1518,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1525,31 +1560,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.2907601999999998E-2</v>
+        <v>2.3246383562196E-2</v>
       </c>
       <c r="C2">
-        <v>0.25128698399999999</v>
+        <v>9.1408496017872806E-2</v>
       </c>
       <c r="D2">
-        <v>3.1147676999999999E-2</v>
+        <v>9.2185346755674791E-3</v>
       </c>
       <c r="E2">
-        <v>0.20067621199999999</v>
+        <v>7.6846364106795406E-2</v>
       </c>
       <c r="F2">
-        <v>2.2342203000000001E-2</v>
+        <v>1.0570434311497399E-2</v>
       </c>
       <c r="G2">
-        <v>2.8310690999999999E-2</v>
+        <v>2.8461943515795202E-2</v>
       </c>
       <c r="H2">
-        <v>0.360942657</v>
+        <v>0.129039147551507</v>
       </c>
       <c r="I2">
-        <v>5.2708110000000002E-3</v>
+        <v>1.9551161153453598E-3</v>
       </c>
       <c r="J2">
-        <v>2.0358000000000001E-2</v>
+        <v>7.4459771599691398E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1557,31 +1592,31 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>4.9415522000000003E-2</v>
+        <v>6.5168833294672601E-2</v>
       </c>
       <c r="C3">
-        <v>8.5150827999999998E-2</v>
+        <v>7.6667450059924203E-2</v>
       </c>
       <c r="D3">
-        <v>5.9795608E-2</v>
+        <v>3.7315392904778498E-2</v>
       </c>
       <c r="E3">
-        <v>9.7359048000000004E-2</v>
+        <v>8.4175131427356401E-2</v>
       </c>
       <c r="F3">
-        <v>6.1805617E-2</v>
+        <v>8.7815765372496704E-2</v>
       </c>
       <c r="G3">
-        <v>5.5243188999999998E-2</v>
+        <v>0.102486230012371</v>
       </c>
       <c r="H3">
-        <v>0.43648861100000003</v>
+        <v>0.49866002467041698</v>
       </c>
       <c r="I3">
-        <v>1.8757632999999999E-2</v>
+        <v>1.76587931116137E-2</v>
       </c>
       <c r="J3">
-        <v>5.6009253000000002E-2</v>
+        <v>3.0037828679540701E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1589,31 +1624,31 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>5.7617043E-2</v>
+        <v>8.2884587929765094E-2</v>
       </c>
       <c r="C4">
-        <v>3.6986739999999997E-2</v>
+        <v>3.9454809446007703E-2</v>
       </c>
       <c r="D4">
-        <v>7.4783792000000002E-2</v>
+        <v>4.1306276320434099E-2</v>
       </c>
       <c r="E4">
-        <v>3.9824151000000002E-2</v>
+        <v>4.7949395711677903E-2</v>
       </c>
       <c r="F4">
-        <v>6.3514457999999996E-2</v>
+        <v>4.8219572156162703E-2</v>
       </c>
       <c r="G4">
-        <v>6.4756619000000001E-2</v>
+        <v>0.16252666411505501</v>
       </c>
       <c r="H4">
-        <v>0.46275642099999997</v>
+        <v>0.52817592808084501</v>
       </c>
       <c r="I4">
-        <v>2.0892391E-2</v>
+        <v>1.05594878319365E-2</v>
       </c>
       <c r="J4">
-        <v>6.9437392000000001E-2</v>
+        <v>3.8923254556090102E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1621,31 +1656,31 @@
         <v>150</v>
       </c>
       <c r="B5">
-        <v>3.2471686999999999E-2</v>
+        <v>4.5638118541981597E-2</v>
       </c>
       <c r="C5">
-        <v>2.4332665999999999E-2</v>
+        <v>2.95375324310705E-2</v>
       </c>
       <c r="D5">
-        <v>0.104337665</v>
+        <v>8.9138269023108493E-2</v>
       </c>
       <c r="E5">
-        <v>2.6486393E-2</v>
+        <v>3.3516281813164399E-2</v>
       </c>
       <c r="F5">
-        <v>7.4908529000000001E-2</v>
+        <v>5.7787643390204702E-2</v>
       </c>
       <c r="G5">
-        <v>4.5879653999999999E-2</v>
+        <v>0.121216361289084</v>
       </c>
       <c r="H5">
-        <v>0.48056664999999998</v>
+        <v>0.53928438190195105</v>
       </c>
       <c r="I5">
-        <v>3.1991169999999999E-2</v>
+        <v>2.7353348810980699E-2</v>
       </c>
       <c r="J5">
-        <v>9.0525361999999998E-2</v>
+        <v>5.6528035514601803E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1653,31 +1688,31 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>4.6158959999999999E-2</v>
+        <v>5.08923526327998E-2</v>
       </c>
       <c r="C6">
-        <v>2.5192018E-2</v>
+        <v>4.6663541452099298E-2</v>
       </c>
       <c r="D6">
-        <v>0.110684743</v>
+        <v>0.141211151983299</v>
       </c>
       <c r="E6">
-        <v>2.2550298999999999E-2</v>
+        <v>4.22190495012758E-2</v>
       </c>
       <c r="F6">
-        <v>0.12768109499999999</v>
+        <v>7.2108675481326795E-2</v>
       </c>
       <c r="G6">
-        <v>5.5588417000000001E-2</v>
+        <v>9.3559835722570206E-2</v>
       </c>
       <c r="H6">
-        <v>0.33940818499999997</v>
+        <v>0.36085478158200002</v>
       </c>
       <c r="I6">
-        <v>4.2814439000000003E-2</v>
+        <v>7.5932887311528696E-2</v>
       </c>
       <c r="J6">
-        <v>0.10922863200000001</v>
+        <v>0.11641852702389199</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1685,31 +1720,31 @@
         <v>250</v>
       </c>
       <c r="B7">
-        <v>5.3206742000000001E-2</v>
+        <v>2.3299325191370901E-2</v>
       </c>
       <c r="C7">
-        <v>3.6760095E-2</v>
+        <v>1.6558231384829501E-2</v>
       </c>
       <c r="D7">
-        <v>0.13832575999999999</v>
+        <v>0.22549662129436299</v>
       </c>
       <c r="E7">
-        <v>3.1647166999999997E-2</v>
+        <v>1.3591924077940101E-2</v>
       </c>
       <c r="F7">
-        <v>0.133556169</v>
+        <v>0.12090848190675001</v>
       </c>
       <c r="G7">
-        <v>6.3656297000000001E-2</v>
+        <v>5.0876736812804399E-2</v>
       </c>
       <c r="H7">
-        <v>0.20813052300000001</v>
+        <v>0.25444397459986101</v>
       </c>
       <c r="I7">
-        <v>5.3316091000000003E-2</v>
+        <v>8.4915934029227605E-2</v>
       </c>
       <c r="J7">
-        <v>0.126564761</v>
+        <v>0.20970000487126</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1717,31 +1752,31 @@
         <v>300</v>
       </c>
       <c r="B8">
-        <v>3.8602850000000001E-2</v>
+        <v>4.2565979732080803E-2</v>
       </c>
       <c r="C8">
-        <v>1.3372808E-2</v>
+        <v>4.6631841945024302E-2</v>
       </c>
       <c r="D8">
-        <v>0.19103144</v>
+        <v>0.18022449199721699</v>
       </c>
       <c r="E8">
-        <v>8.8262649999999998E-3</v>
+        <v>4.2907900487125998E-2</v>
       </c>
       <c r="F8">
-        <v>0.156624969</v>
+        <v>0.13879438900487101</v>
       </c>
       <c r="G8">
-        <v>5.5307399E-2</v>
+        <v>6.3128600121781606E-2</v>
       </c>
       <c r="H8">
-        <v>0.171424988</v>
+        <v>0.222349857428671</v>
       </c>
       <c r="I8">
-        <v>3.1248544E-2</v>
+        <v>8.9150129784272794E-2</v>
       </c>
       <c r="J8">
-        <v>0.171076853</v>
+        <v>0.17372488822199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1749,31 +1784,31 @@
         <v>350</v>
       </c>
       <c r="B9">
-        <v>3.7163624999999999E-2</v>
+        <v>4.9822397007654798E-2</v>
       </c>
       <c r="C9">
-        <v>2.5821892999999999E-2</v>
+        <v>2.1655732428670801E-2</v>
       </c>
       <c r="D9">
-        <v>0.168592187</v>
+        <v>0.16006127383437699</v>
       </c>
       <c r="E9">
-        <v>2.0239047E-2</v>
+        <v>1.5370952331245699E-2</v>
       </c>
       <c r="F9">
-        <v>0.27563527999999998</v>
+        <v>0.21151420911621399</v>
       </c>
       <c r="G9">
-        <v>4.8532695000000001E-2</v>
+        <v>9.9365557411273606E-2</v>
       </c>
       <c r="H9">
-        <v>1.0678599E-2</v>
+        <v>0.146600947112039</v>
       </c>
       <c r="I9">
-        <v>5.1896717000000002E-2</v>
+        <v>8.6552584203201097E-2</v>
       </c>
       <c r="J9">
-        <v>0.19699674</v>
+        <v>0.208305349686847</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1781,31 +1816,31 @@
         <v>400</v>
       </c>
       <c r="B10">
-        <v>2.3119722999999998E-2</v>
+        <v>2.3052001043841301E-2</v>
       </c>
       <c r="C10">
-        <v>3.1482580000000001E-3</v>
+        <v>1.6800608907445998E-2</v>
       </c>
       <c r="D10">
-        <v>0.21093605800000001</v>
+        <v>0.17307221920668101</v>
       </c>
       <c r="E10">
-        <v>1.739244E-3</v>
+        <v>1.1087701113430701E-2</v>
       </c>
       <c r="F10">
-        <v>0.110622344</v>
+        <v>0.25194870807237302</v>
       </c>
       <c r="G10">
-        <v>4.6620183000000003E-2</v>
+        <v>4.57909262352122E-2</v>
       </c>
       <c r="H10">
-        <v>0.30325651999999997</v>
+        <v>0.20807044954766901</v>
       </c>
       <c r="I10">
-        <v>1.1686765E-2</v>
+        <v>5.7317580027835803E-2</v>
       </c>
       <c r="J10">
-        <v>0.16480838</v>
+        <v>0.21181596590118301</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1813,31 +1848,31 @@
         <v>450</v>
       </c>
       <c r="B11">
-        <v>2.0593244E-2</v>
+        <v>1.0330157736024101E-2</v>
       </c>
       <c r="C11">
-        <v>9.1482149999999995E-3</v>
+        <v>1.7737079563906299E-3</v>
       </c>
       <c r="D11">
-        <v>0.20536934200000001</v>
+        <v>0.31125926304801699</v>
       </c>
       <c r="E11">
-        <v>6.9956050000000002E-3</v>
+        <v>1.30539665970772E-3</v>
       </c>
       <c r="F11">
-        <v>0.326392827</v>
+        <v>0.103937981210856</v>
       </c>
       <c r="G11">
-        <v>3.5425147999999997E-2</v>
+        <v>4.6156713523544397E-2</v>
       </c>
       <c r="H11">
-        <v>2.5341681000000001E-2</v>
+        <v>0.22787730920900001</v>
       </c>
       <c r="I11">
-        <v>2.5016551000000001E-2</v>
+        <v>9.8969048944560507E-3</v>
       </c>
       <c r="J11">
-        <v>0.21669243599999999</v>
+        <v>0.28676668499188102</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1845,31 +1880,31 @@
         <v>500</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.0410085826954301E-3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.3560368823938801E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.43244248527023899</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9.2888424959405998E-4</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>8.5133405474367901E-2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5.2876437021572697E-3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.4399693342611901E-2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.1573782185107901E-2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.44474934957086498</v>
       </c>
     </row>
   </sheetData>
